--- a/others/Investment/THS/AutoTrade/data/账户持仓信息.xlsx
+++ b/others/Investment/THS/AutoTrade/data/账户持仓信息.xlsx
@@ -469,22 +469,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>73,750.42</t>
+          <t>1,574.08</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>-1,166.20</t>
+          <t>85,688.20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-468.80/-0.63%</t>
+          <t>未找到/未找到</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>73,750.42</t>
+          <t>1,574.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -509,7 +509,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,12 +525,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>盈亏/盈亏率</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>当日盈亏/盈亏率</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>盈亏/盈亏率</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -547,49 +547,49 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>恒生科技ETF</t>
+          <t>可转债ETF</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>35.70/1.125%</t>
+          <t>100.58/0.930%</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>169.64/5.540%</t>
+          <t>-33.30/-0.304%</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.596/0.629</t>
+          <t>12.036/12.148</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5100/5100</t>
+          <t>900/900</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>工商银行</t>
+          <t>政金债券ETF</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>15.00/2.249%</t>
+          <t>6.36/0.060%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>133.56/24.320%</t>
+          <t>2.00/0.017%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.486/6.820</t>
+          <t>115.550/115.614</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -601,22 +601,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>中国电信</t>
+          <t>国债政金债ETF</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>15.00/2.171%</t>
+          <t>12.68/0.120%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>101.72/16.810%</t>
+          <t>2.90/0.027%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>6.044/7.060</t>
+          <t>107.607/107.734</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -628,157 +628,157 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>国开债券ETF</t>
+          <t>恒生科技ETF</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>54.00/0.170%</t>
+          <t>293.81/11.470%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>70.24/0.220%</t>
+          <t>-73.80/-2.521%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>105.560/105.794</t>
+          <t>0.624/0.696</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>300/300</t>
+          <t>4100/4100</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>国光股份</t>
+          <t>稀土ETF</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>26.00/1.898%</t>
+          <t>-3.34/-0.110%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>45.07/3.320%</t>
+          <t>-39.00/-1.143%</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>13.511/13.960</t>
+          <t>1.125/1.124</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>3000/3000</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>恒生ETF</t>
+          <t>黄金ETF华夏</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>26.40/0.972%</t>
+          <t>143.32/2.760%</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>28.76/1.050%</t>
+          <t>61.60/1.167%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.234/1.247</t>
+          <t>7.423/7.627</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2200/2200</t>
+          <t>700/700</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>鑫科材料</t>
+          <t>A500指数ETF</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-44.00/-2.683%</t>
+          <t>-29.19/-0.970%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14.93/0.940%</t>
+          <t>-22.40/-0.738%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3.953/3.990</t>
+          <t>0.950/0.941</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>400/400</t>
+          <t>3200/3200</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>标普ETF</t>
+          <t>中恒集团</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-232.90/-7.519%</t>
+          <t>64.14/5.200%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13.76/0.480%</t>
+          <t>-25.00/-1.894%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.677/1.685</t>
+          <t>2.462/2.590</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1700/1700</t>
+          <t>500/500</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>城投债ETF</t>
+          <t>长江电力</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1.30/0.126%</t>
+          <t>183.21/6.360%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9.88/0.970%</t>
+          <t>43.00/1.424%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>10.247/10.346</t>
+          <t>28.789/30.620</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -790,238 +790,238 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>新标准券</t>
+          <t>工商银行</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>--/</t>
+          <t>273.75/23.920%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.00/0.000%</t>
+          <t>-4.00/-0.281%</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.000/100.000</t>
+          <t>5.721/7.090</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0/0</t>
+          <t>200/200</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>思进智能</t>
+          <t>中国电信</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-18.00/-1.213%</t>
+          <t>414.46/15.620%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-16.98/-1.160%</t>
+          <t>20.00/0.656%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>14.832/14.660</t>
+          <t>6.634/7.670</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>400/400</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>奥康国际</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>-75.60/-2.750%</t>
+          <t>40.76/2.250%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-20.83/-0.800%</t>
+          <t>-102.00/-5.247%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.998/0.990</t>
+          <t>6.005/6.140</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2700/2700</t>
+          <t>300/300</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>国盛金控</t>
+          <t>未找到</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>-74.00/-5.233%</t>
+          <t>未找到/未找到</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-61.90/-4.430%</t>
+          <t>未找到/未找到</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>14.021/13.400</t>
+          <t>未找到/未找到</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>未找到</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>恒生科技ETF基金</t>
+          <t>吉祥航空</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>51.10/1.124%</t>
+          <t>99.09/7.870%</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>-66.18/-1.410%</t>
+          <t>-48.00/-3.419%</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.639/0.630</t>
+          <t>12.570/13.560</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>7300/7300</t>
+          <t>100/100</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A500指数ETF</t>
+          <t>醋化股份</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>-22.40/-0.750%</t>
+          <t>49.26/1.490%</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>-83.19/-2.730%</t>
+          <t>-63.00/-1.855%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.952/0.926</t>
+          <t>10.946/11.110</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3200/3200</t>
+          <t>300/300</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>福莱特</t>
+          <t>华生科技</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>-85.00/-4.276%</t>
+          <t>-119.84/-4.200%</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-164.29/-7.960%</t>
+          <t>-76.00/-2.699%</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20.676/19.030</t>
+          <t>14.301/13.700</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>200/200</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>长江电力</t>
+          <t>汉钟精机</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>70.00/2.482%</t>
+          <t>-62.26/-1.820%</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>-192.60/-6.260%</t>
+          <t>-54.00/-1.580%</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>30.829/28.900</t>
+          <t>17.133/16.820</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>200/200</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>红旗连锁</t>
+          <t>永安药业</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>-24.00/-2.264%</t>
+          <t>466.65/10.180%</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>-254.72/-19.750%</t>
+          <t>460.00/10.022%</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>6.455/5.180</t>
+          <t>22.916/25.250</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1033,54 +1033,108 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>紫光股份</t>
+          <t>毅昌科技</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>-164.00/-6.115%</t>
+          <t>-81.58/-3.380%</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>-370.72/-12.840%</t>
+          <t>-84.00/-3.465%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>28.891/25.180</t>
+          <t>6.055/5.850</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>400/400</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>房地产ETF基金</t>
+          <t>利民股份</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>-23.40/-1.364%</t>
+          <t>1,009.92/19.500%</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>-522.35/-23.590%</t>
+          <t>-687.00/-9.987%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.852/0.651</t>
+          <t>17.272/20.640</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2600/2600</t>
+          <t>300/300</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>标普ETF</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>-212.33/-7.450%</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>-22.10/-0.831%</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.677/1.552</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>1700/1700</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>恒生ETF</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>419.65/0.000%</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>-2.20/-1.483%</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>-2.736/1.461</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>100/100</t>
         </is>
       </c>
     </row>
